--- a/pub/Operations/ServiceLevelAgreements/2015.xlsx
+++ b/pub/Operations/ServiceLevelAgreements/2015.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="1340" yWindow="260" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
     <sheet name="Jan" sheetId="2" r:id="rId2"/>
     <sheet name="Feb" sheetId="3" r:id="rId3"/>
     <sheet name="Mar" sheetId="4" r:id="rId4"/>
+    <sheet name="Apr" sheetId="5" r:id="rId5"/>
+    <sheet name="May" sheetId="6" r:id="rId6"/>
+    <sheet name="Jun" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>Resource/Name</t>
   </si>
@@ -211,6 +214,9 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -280,9 +286,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -628,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -693,13 +696,25 @@
         <f>Jan!D3</f>
         <v>0.99929999999999997</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>Feb!D3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>Mar!D3</f>
         <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f>Apr!D3</f>
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="G3" s="2">
+        <f>May!D3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <f>Jun!D3</f>
+        <v>0.99980000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -713,12 +728,24 @@
         <f>Jan!D4</f>
         <v>0.99909999999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>Feb!D4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>Mar!D4</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <f>Apr!D4</f>
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <f>May!D4</f>
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <f>Jun!D4</f>
         <v>1</v>
       </c>
     </row>
@@ -733,13 +760,25 @@
         <f>Jan!D5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>Feb!D5</f>
         <v>0.99929999999999997</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>Mar!D5</f>
         <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>Apr!D5</f>
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <f>May!D5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <f>Jun!D5</f>
+        <v>0.99929999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -753,13 +792,25 @@
         <f>Jan!D6</f>
         <v>0.99770000000000003</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>Feb!D6</f>
         <v>0.98709999999999998</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>Mar!D6</f>
         <v>0.99490000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <f>Apr!D6</f>
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <f>May!D6</f>
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <f>Jun!D6</f>
+        <v>0.999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -773,13 +824,25 @@
         <f>Jan!D7</f>
         <v>0.97330000000000005</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f>Feb!D7</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f>Mar!D7</f>
         <v>0.99950000000000006</v>
+      </c>
+      <c r="F7" s="2">
+        <f>Apr!D7</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G7" s="2">
+        <f>May!D7</f>
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <f>Jun!D7</f>
+        <v>0.96840000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -793,13 +856,25 @@
         <f>Jan!D8</f>
         <v>0.99680000000000002</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f>Feb!D8</f>
         <v>0.99850000000000005</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f>Mar!D8</f>
         <v>0.99909999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <f>Apr!D8</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G8" s="2">
+        <f>May!D8</f>
+        <v>0.8468</v>
+      </c>
+      <c r="H8" s="2">
+        <f>Jun!D8</f>
+        <v>0.95709999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -812,12 +887,24 @@
       <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f>Mar!D9</f>
         <v>0.97719999999999996</v>
+      </c>
+      <c r="F9" s="2">
+        <f>Apr!D9</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G9" s="2">
+        <f>May!D9</f>
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="H9" s="2">
+        <f>Jun!D9</f>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -831,13 +918,25 @@
         <f>Jan!D10</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f>Feb!D10</f>
         <v>0.99790000000000001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f>Mar!D10</f>
         <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f>Apr!D10</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G10" s="2">
+        <f>May!D10</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <f>Jun!D10</f>
+        <v>0.99980000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -851,13 +950,25 @@
         <f>Jan!D11</f>
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f>Feb!D11</f>
         <v>0.99750000000000005</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>Mar!D11</f>
         <v>0.99980000000000002</v>
+      </c>
+      <c r="F11" s="2">
+        <f>Apr!D11</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f>May!D11</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <f>Jun!D11</f>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -871,12 +982,24 @@
         <f>Jan!D12</f>
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>Feb!D12</f>
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>Mar!D12</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f>Apr!D12</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G12" s="2">
+        <f>May!D12</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H12" s="2">
+        <f>Jun!D12</f>
         <v>1</v>
       </c>
     </row>
@@ -891,12 +1014,24 @@
         <f>Jan!D13</f>
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f>Feb!D13</f>
         <v>0.99970000000000003</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f>Mar!D13</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f>Apr!D13</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>May!D13</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <f>Jun!D13</f>
         <v>1</v>
       </c>
     </row>
@@ -911,13 +1046,25 @@
         <f>Jan!D14</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f>Feb!D14</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f>Mar!D14</f>
         <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f>Apr!D14</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G14" s="2">
+        <f>May!D14</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H14" s="2">
+        <f>Jun!D14</f>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -931,13 +1078,25 @@
         <f>Jan!D15</f>
         <v>0.98209999999999997</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>Feb!D15</f>
         <v>0.96240000000000003</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>Mar!D15</f>
         <v>0.94769999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <f>Apr!D15</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <f>May!D15</f>
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="H15" s="2">
+        <f>Jun!D15</f>
+        <v>0.97509999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -951,16 +1110,28 @@
         <f>Jan!D16</f>
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f>Feb!D16</f>
         <v>1</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f>Mar!D16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2">
+        <f>Apr!D16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <f>May!D16</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <f>Jun!D16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -971,16 +1142,28 @@
         <f>Jan!D17</f>
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f>Feb!D17</f>
         <v>1</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f>Mar!D17</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2">
+        <f>Apr!D17</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f>May!D17</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H17" s="2">
+        <f>Jun!D17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -991,16 +1174,28 @@
         <f>Jan!D18</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f>Feb!D18</f>
         <v>0.999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f>Mar!D18</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="2">
+        <f>Apr!D18</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G18" s="2">
+        <f>May!D18</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H18" s="2">
+        <f>Jun!D18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1011,16 +1206,28 @@
         <f>Jan!D19</f>
         <v>1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f>Feb!D19</f>
         <v>1</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f>Mar!D19</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="2">
+        <f>Apr!D19</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <f>May!D19</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <f>Jun!D19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1031,16 +1238,28 @@
         <f>Jan!D20</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f>Feb!D20</f>
         <v>0.99909999999999999</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f>Mar!D20</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="2">
+        <f>Apr!D20</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G20" s="2">
+        <f>May!D20</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H20" s="2">
+        <f>Jun!D20</f>
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1051,16 +1270,28 @@
         <f>Jan!D21</f>
         <v>1</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f>Feb!D21</f>
         <v>1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f>Mar!D21</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="2">
+        <f>Apr!D21</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <f>May!D21</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H21" s="2">
+        <f>Jun!D21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1071,16 +1302,28 @@
         <f>Jan!D22</f>
         <v>1</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f>Feb!D22</f>
         <v>0.84970000000000001</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f>Mar!D22</f>
         <v>0.98780000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="2">
+        <f>Apr!D22</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G22" s="2">
+        <f>May!D22</f>
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="H22" s="2">
+        <f>Jun!D22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1091,16 +1334,28 @@
         <f>Jan!D23</f>
         <v>0.99399999999999999</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f>Feb!D23</f>
         <v>0.96189999999999998</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f>Mar!D23</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="2">
+        <f>Apr!D23</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f>May!D23</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <f>Jun!D23</f>
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1111,16 +1366,28 @@
         <f>Jan!D24</f>
         <v>0.99539999999999995</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f>Feb!D24</f>
         <v>1</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f>Mar!D24</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="2">
+        <f>Apr!D24</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <f>May!D24</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <f>Jun!D24</f>
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1131,16 +1398,28 @@
         <f>Jan!D25</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f>Feb!D25</f>
         <v>0.999</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f>Mar!D25</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="2">
+        <f>Apr!D25</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G25" s="2">
+        <f>May!D25</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H25" s="2">
+        <f>Jun!D25</f>
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1151,16 +1430,28 @@
         <f>Jan!D26</f>
         <v>1</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f>Feb!D26</f>
         <v>1</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f>Mar!D26</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="2">
+        <f>Apr!D26</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f>May!D26</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <f>Jun!D26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1171,16 +1462,28 @@
         <f>Jan!D27</f>
         <v>1</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f>Feb!D27</f>
         <v>0.9647</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f>Mar!D27</f>
         <v>0.999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="2">
+        <f>Apr!D27</f>
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="G27" s="2">
+        <f>May!D27</f>
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="H27" s="2">
+        <f>Jun!D27</f>
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1191,16 +1494,28 @@
         <f>Jan!D28</f>
         <v>0.96319999999999995</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f>Feb!D28</f>
         <v>0.98770000000000002</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f>Mar!D28</f>
         <v>0.98880000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="2">
+        <f>Apr!D28</f>
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="G28" s="2">
+        <f>May!D28</f>
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="H28" s="2">
+        <f>Jun!D28</f>
+        <v>0.97409999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1211,16 +1526,28 @@
         <f>Jan!D29</f>
         <v>0.99909999999999999</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f>Feb!D29</f>
         <v>0.98199999999999998</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f>Mar!D29</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="2">
+        <f>Apr!D29</f>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="G29" s="2">
+        <f>May!D29</f>
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="H29" s="2">
+        <f>Jun!D29</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1231,16 +1558,28 @@
         <f>Jan!D30</f>
         <v>1</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f>Feb!D30</f>
         <v>1</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f>Mar!D30</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="2">
+        <f>Apr!D30</f>
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="G30" s="2">
+        <f>May!D30</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <f>Jun!D30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1251,16 +1590,28 @@
         <f>Jan!D31</f>
         <v>1</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f>Feb!D31</f>
         <v>1</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f>Mar!D31</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="2">
+        <f>Apr!D31</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <f>May!D31</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <f>Jun!D31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1271,21 +1622,36 @@
         <f>Jan!D32</f>
         <v>1</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <f>Feb!D32</f>
         <v>0.99590000000000001</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f>Mar!D32</f>
         <v>0.99560000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F32" s="2">
+        <f>Apr!D32</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <f>May!D32</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H32" s="2">
+        <f>Jun!D32</f>
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1296,8 +1662,12 @@
         <f>AVERAGE(C3:E3)</f>
         <v>0.99976666666666658</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36" s="2">
+        <f>AVERAGE(F3:H3)</f>
+        <v>0.99803333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1305,11 +1675,15 @@
         <v>42</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ref="E37:E74" si="0">AVERAGE(C4:E4)</f>
+        <f t="shared" ref="E37:E65" si="0">AVERAGE(C4:E4)</f>
         <v>0.99969999999999992</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37" s="2">
+        <f t="shared" ref="H37:H65" si="1">AVERAGE(F4:H4)</f>
+        <v>0.99893333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1320,8 +1694,12 @@
         <f t="shared" si="0"/>
         <v>0.99976666666666658</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1332,8 +1710,12 @@
         <f t="shared" si="0"/>
         <v>0.9932333333333333</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1344,8 +1726,12 @@
         <f t="shared" si="0"/>
         <v>0.99046666666666672</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97823333333333329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1356,8 +1742,12 @@
         <f t="shared" si="0"/>
         <v>0.99813333333333343</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93446666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1368,8 +1758,12 @@
         <f t="shared" si="0"/>
         <v>0.97719999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99963333333333326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -1380,8 +1774,12 @@
         <f t="shared" si="0"/>
         <v>0.99913333333333332</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99970000000000014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1392,8 +1790,12 @@
         <f t="shared" si="0"/>
         <v>0.99909999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99983333333333346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1404,8 +1806,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9996666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1416,8 +1822,12 @@
         <f t="shared" si="0"/>
         <v>0.9998999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99993333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1428,8 +1838,12 @@
         <f t="shared" si="0"/>
         <v>0.9996666666666667</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99949999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1440,8 +1854,12 @@
         <f t="shared" si="0"/>
         <v>0.96406666666666663</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9788</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1452,8 +1870,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1886,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99993333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1476,8 +1902,12 @@
         <f t="shared" si="0"/>
         <v>0.99949999999999994</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9996666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -1488,8 +1918,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -1500,8 +1934,12 @@
         <f t="shared" si="0"/>
         <v>0.99953333333333338</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99949999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -1512,8 +1950,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99983333333333346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -1524,8 +1966,12 @@
         <f t="shared" si="0"/>
         <v>0.9458333333333333</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9754666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -1536,8 +1982,12 @@
         <f t="shared" si="0"/>
         <v>0.98529999999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="H56" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99976666666666658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1998,12 @@
         <f t="shared" si="0"/>
         <v>0.99846666666666672</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="H57" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99903333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1560,8 +2014,12 @@
         <f t="shared" si="0"/>
         <v>0.99960000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="H58" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -1572,8 +2030,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="H59" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -1584,8 +2046,12 @@
         <f t="shared" si="0"/>
         <v>0.98790000000000011</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="H60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98746666666666671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -1596,8 +2062,12 @@
         <f t="shared" si="0"/>
         <v>0.97989999999999988</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="H61" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97853333333333337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -1608,8 +2078,12 @@
         <f t="shared" si="0"/>
         <v>0.99370000000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="H62" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99903333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -1620,8 +2094,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="H63" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -1632,8 +2110,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="H64" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -1643,6 +2125,10 @@
       <c r="E65" s="2">
         <f t="shared" si="0"/>
         <v>0.99716666666666676</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99643333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -2243,4 +2729,514 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" s="2">
+        <v>0.99429999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="2">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="2">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="2">
+        <v>0.99380000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2">
+        <v>0.96740000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="2">
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="2">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2">
+        <v>0.96679999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2">
+        <v>0.8468</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="2">
+        <v>0.96930000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="2">
+        <v>0.92689999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2">
+        <v>0.98450000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="2">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2">
+        <v>0.96840000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2">
+        <v>0.95709999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="2">
+        <v>0.97509999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="2">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2">
+        <v>0.97409999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="2">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/pub/Operations/ServiceLevelAgreements/2015.xlsx
+++ b/pub/Operations/ServiceLevelAgreements/2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="260" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="6240" yWindow="880" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="Apr" sheetId="5" r:id="rId5"/>
     <sheet name="May" sheetId="6" r:id="rId6"/>
     <sheet name="Jun" sheetId="7" r:id="rId7"/>
+    <sheet name="Jul" sheetId="8" r:id="rId8"/>
+    <sheet name="Aug" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
   <si>
     <t>Resource/Name</t>
   </si>
@@ -217,6 +219,24 @@
   </si>
   <si>
     <t>Q2</t>
+  </si>
+  <si>
+    <t>gratia-itb-osg</t>
+  </si>
+  <si>
+    <t>Gratia-main-osg</t>
+  </si>
+  <si>
+    <t>gratia-transfer-osg</t>
+  </si>
+  <si>
+    <t>Oasis login nodes</t>
+  </si>
+  <si>
+    <t>oasis-login</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -265,8 +285,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -289,17 +331,39 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -629,11 +693,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -687,1448 +749,2019 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2">
+      <c r="K3" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.91930000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2">
         <f>Jan!D3</f>
         <v>0.99929999999999997</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="2">
         <f>Feb!D3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5" s="2">
         <f>Mar!D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F5" s="2">
         <f>Apr!D3</f>
         <v>0.99429999999999996</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G5" s="2">
         <f>May!D3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H5" s="2">
         <f>Jun!D3</f>
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="I5" s="2">
+        <f>Jul!D3</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <f>Aug!D3</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <f>Jan!D4</f>
         <v>0.99909999999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2">
         <f>Feb!D4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="2">
         <f>Mar!D4</f>
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F6" s="2">
         <f>Apr!D4</f>
         <v>0.99790000000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G6" s="2">
         <f>May!D4</f>
         <v>0.99890000000000001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H6" s="2">
         <f>Jun!D4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+      <c r="I6" s="2">
+        <f>Jul!D4</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <f>Aug!D4</f>
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <f>Jan!D5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <f>Feb!D5</f>
         <v>0.99929999999999997</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="2">
         <f>Mar!D5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F7" s="2">
         <f>Apr!D5</f>
         <v>0.99770000000000003</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G7" s="2">
         <f>May!D5</f>
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H7" s="2">
         <f>Jun!D5</f>
         <v>0.99929999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
+      <c r="I7" s="2">
+        <f>Jul!D5</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <f>Aug!D5</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.96060000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>0.86319999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C9" s="2">
         <f>Jan!D6</f>
         <v>0.99770000000000003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D9" s="2">
         <f>Feb!D6</f>
         <v>0.98709999999999998</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E9" s="2">
         <f>Mar!D6</f>
         <v>0.99490000000000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F9" s="2">
         <f>Apr!D6</f>
         <v>0.99380000000000002</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G9" s="2">
         <f>May!D6</f>
         <v>0.99099999999999999</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H9" s="2">
         <f>Jun!D6</f>
         <v>0.999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
+      <c r="I9" s="2">
+        <f>Jul!D6</f>
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="J9" s="2">
+        <f>Aug!D6</f>
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.98729999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C10" s="2">
         <f>Jan!D7</f>
         <v>0.97330000000000005</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D10" s="2">
         <f>Feb!D7</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E10" s="2">
         <f>Mar!D7</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F10" s="2">
         <f>Apr!D7</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G10" s="2">
         <f>May!D7</f>
         <v>0.96679999999999999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H10" s="2">
         <f>Jun!D7</f>
         <v>0.96840000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
+      <c r="I10" s="2">
+        <f>Jul!D7</f>
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="J10" s="2">
+        <f>Aug!D7</f>
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.90680000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C11" s="2">
         <f>Jan!D8</f>
         <v>0.99680000000000002</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D11" s="2">
         <f>Feb!D8</f>
         <v>0.99850000000000005</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E11" s="2">
         <f>Mar!D8</f>
         <v>0.99909999999999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F11" s="2">
         <f>Apr!D8</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="2">
         <f>May!D8</f>
         <v>0.8468</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H11" s="2">
         <f>Jun!D8</f>
         <v>0.95709999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
+      <c r="I11" s="2">
+        <f>Jul!D8</f>
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="J11" s="2">
+        <f>Aug!D8</f>
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E12" s="2">
         <f>Mar!D9</f>
         <v>0.97719999999999996</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F12" s="2">
         <f>Apr!D9</f>
         <v>0.99960000000000004</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G12" s="2">
         <f>May!D9</f>
         <v>0.99970000000000003</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H12" s="2">
         <f>Jun!D9</f>
         <v>0.99960000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
+      <c r="I12" s="2">
+        <f>Jul!D9</f>
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="J12" s="2">
+        <f>Aug!D9</f>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C13" s="2">
         <f>Jan!D10</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D13" s="2">
         <f>Feb!D10</f>
         <v>0.99790000000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E13" s="2">
         <f>Mar!D10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F13" s="2">
         <f>Apr!D10</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G13" s="2">
         <f>May!D10</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H13" s="2">
         <f>Jun!D10</f>
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+      <c r="I13" s="2">
+        <f>Jul!D10</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J13" s="2">
+        <f>Aug!D10</f>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C14" s="2">
         <f>Jan!D11</f>
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D14" s="2">
         <f>Feb!D11</f>
         <v>0.99750000000000005</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E14" s="2">
         <f>Mar!D11</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F14" s="2">
         <f>Apr!D11</f>
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G14" s="2">
         <f>May!D11</f>
         <v>1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H14" s="2">
         <f>Jun!D11</f>
         <v>0.99950000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
+      <c r="I14" s="2">
+        <f>Jul!D11</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <f>Aug!D11</f>
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C15" s="2">
         <f>Jan!D12</f>
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D15" s="2">
         <f>Feb!D12</f>
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E15" s="2">
         <f>Mar!D12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F15" s="2">
         <f>Apr!D12</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G15" s="2">
         <f>May!D12</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H15" s="2">
         <f>Jun!D12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
+      <c r="I15" s="2">
+        <f>Jul!D12</f>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="J15" s="2">
+        <f>Aug!D12</f>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C16" s="2">
         <f>Jan!D13</f>
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D16" s="2">
         <f>Feb!D13</f>
         <v>0.99970000000000003</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E16" s="2">
         <f>Mar!D13</f>
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F16" s="2">
         <f>Apr!D13</f>
         <v>1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G16" s="2">
         <f>May!D13</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H16" s="2">
         <f>Jun!D13</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+      <c r="I16" s="2">
+        <f>Jul!D13</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <f>Aug!D13</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C17" s="2">
         <f>Jan!D14</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D17" s="2">
         <f>Feb!D14</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E17" s="2">
         <f>Mar!D14</f>
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F17" s="2">
         <f>Apr!D14</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G17" s="2">
         <f>May!D14</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H17" s="2">
         <f>Jun!D14</f>
         <v>0.99950000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
+      <c r="I17" s="2">
+        <f>Jul!D14</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <f>Aug!D14</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C18" s="2">
         <f>Jan!D15</f>
         <v>0.98209999999999997</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D18" s="2">
         <f>Feb!D15</f>
         <v>0.96240000000000003</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E18" s="2">
         <f>Mar!D15</f>
         <v>0.94769999999999999</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F18" s="2">
         <f>Apr!D15</f>
         <v>0.99199999999999999</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G18" s="2">
         <f>May!D15</f>
         <v>0.96930000000000005</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H18" s="2">
         <f>Jun!D15</f>
         <v>0.97509999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
+      <c r="I18" s="2">
+        <f>Jul!D15</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="J18" s="2">
+        <f>Aug!D15</f>
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C19" s="2">
         <f>Jan!D16</f>
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D19" s="2">
         <f>Feb!D16</f>
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E19" s="2">
         <f>Mar!D16</f>
         <v>1</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F19" s="2">
         <f>Apr!D16</f>
         <v>1</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G19" s="2">
         <f>May!D16</f>
         <v>1</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H19" s="2">
         <f>Jun!D16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="I19" s="2">
+        <f>Jul!D16</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <f>Aug!D16</f>
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C20" s="2">
         <f>Jan!D17</f>
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D20" s="2">
         <f>Feb!D17</f>
         <v>1</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E20" s="2">
         <f>Mar!D17</f>
         <v>1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F20" s="2">
         <f>Apr!D17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G20" s="2">
         <f>May!D17</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H20" s="2">
         <f>Jun!D17</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="I20" s="2">
+        <f>Jul!D17</f>
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="J20" s="2">
+        <f>Aug!D17</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C21" s="2">
         <f>Jan!D18</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D21" s="2">
         <f>Feb!D18</f>
         <v>0.999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E21" s="2">
         <f>Mar!D18</f>
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F21" s="2">
         <f>Apr!D18</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G21" s="2">
         <f>May!D18</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H21" s="2">
         <f>Jun!D18</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="I21" s="2">
+        <f>Jul!D18</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="J21" s="2">
+        <f>Aug!D18</f>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C22" s="2">
         <f>Jan!D19</f>
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D22" s="2">
         <f>Feb!D19</f>
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E22" s="2">
         <f>Mar!D19</f>
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F22" s="2">
         <f>Apr!D19</f>
         <v>1</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G22" s="2">
         <f>May!D19</f>
         <v>1</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H22" s="2">
         <f>Jun!D19</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="I22" s="2">
+        <f>Jul!D19</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <f>Aug!D19</f>
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C23" s="2">
         <f>Jan!D20</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D23" s="2">
         <f>Feb!D20</f>
         <v>0.99909999999999999</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E23" s="2">
         <f>Mar!D20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F23" s="2">
         <f>Apr!D20</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G23" s="2">
         <f>May!D20</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H23" s="2">
         <f>Jun!D20</f>
         <v>0.99950000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="I23" s="2">
+        <f>Jul!D20</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <f>Aug!D20</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C24" s="2">
         <f>Jan!D21</f>
         <v>1</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D24" s="2">
         <f>Feb!D21</f>
         <v>1</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E24" s="2">
         <f>Mar!D21</f>
         <v>1</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F24" s="2">
         <f>Apr!D21</f>
         <v>1</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G24" s="2">
         <f>May!D21</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H24" s="2">
         <f>Jun!D21</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+      <c r="I24" s="2">
+        <f>Jul!D21</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J24" s="2">
+        <f>Aug!D21</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C25" s="2">
         <f>Jan!D22</f>
         <v>1</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D25" s="2">
         <f>Feb!D22</f>
         <v>0.84970000000000001</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E25" s="2">
         <f>Mar!D22</f>
         <v>0.98780000000000001</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F25" s="2">
         <f>Apr!D22</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G25" s="2">
         <f>May!D22</f>
         <v>0.92689999999999995</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H25" s="2">
         <f>Jun!D22</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+      <c r="I25" s="2">
+        <f>Jul!D22</f>
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="J25" s="2">
+        <f>Aug!D22</f>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C26" s="2">
         <f>Jan!D23</f>
         <v>0.99399999999999999</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D26" s="2">
         <f>Feb!D23</f>
         <v>0.96189999999999998</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E26" s="2">
         <f>Mar!D23</f>
         <v>1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F26" s="2">
         <f>Apr!D23</f>
         <v>1</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G26" s="2">
         <f>May!D23</f>
         <v>1</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H26" s="2">
         <f>Jun!D23</f>
         <v>0.99929999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="I26" s="2">
+        <f>Jul!D23</f>
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="J26" s="2">
+        <f>Aug!D23</f>
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C27" s="2">
         <f>Jan!D24</f>
         <v>0.99539999999999995</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D27" s="2">
         <f>Feb!D24</f>
         <v>1</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E27" s="2">
         <f>Mar!D24</f>
         <v>1</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F27" s="2">
         <f>Apr!D24</f>
         <v>1</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G27" s="2">
         <f>May!D24</f>
         <v>1</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H27" s="2">
         <f>Jun!D24</f>
         <v>0.99709999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
+      <c r="I27" s="2">
+        <f>Jul!D24</f>
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="J27" s="2">
+        <f>Aug!D24</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C28" s="2">
         <f>Jan!D25</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D28" s="2">
         <f>Feb!D25</f>
         <v>0.999</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E28" s="2">
         <f>Mar!D25</f>
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F28" s="2">
         <f>Apr!D25</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G28" s="2">
         <f>May!D25</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H28" s="2">
         <f>Jun!D25</f>
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="I28" s="2">
+        <f>Jul!D25</f>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J28" s="2">
+        <f>Aug!D25</f>
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C29" s="2">
         <f>Jan!D26</f>
         <v>1</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D29" s="2">
         <f>Feb!D26</f>
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E29" s="2">
         <f>Mar!D26</f>
         <v>1</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F29" s="2">
         <f>Apr!D26</f>
         <v>1</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G29" s="2">
         <f>May!D26</f>
         <v>1</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H29" s="2">
         <f>Jun!D26</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="I29" s="2">
+        <f>Jul!D26</f>
+        <v>0.9667</v>
+      </c>
+      <c r="J29" s="2">
+        <f>Aug!D26</f>
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C31" s="2">
         <f>Jan!D27</f>
         <v>1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D31" s="2">
         <f>Feb!D27</f>
         <v>0.9647</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E31" s="2">
         <f>Mar!D27</f>
         <v>0.999</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F31" s="2">
         <f>Apr!D27</f>
         <v>0.96740000000000004</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G31" s="2">
         <f>May!D27</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H31" s="2">
         <f>Jun!D27</f>
         <v>0.99639999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="I31" s="2">
+        <f>Jul!D27</f>
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="J31" s="2">
+        <f>Aug!D27</f>
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.98970000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C32" s="2">
         <f>Jan!D28</f>
         <v>0.96319999999999995</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D32" s="2">
         <f>Feb!D28</f>
         <v>0.98770000000000002</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E32" s="2">
         <f>Mar!D28</f>
         <v>0.98880000000000001</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F32" s="2">
         <f>Apr!D28</f>
         <v>0.97699999999999998</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G32" s="2">
         <f>May!D28</f>
         <v>0.98450000000000004</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H32" s="2">
         <f>Jun!D28</f>
         <v>0.97409999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
+      <c r="I32" s="2">
+        <f>Jul!D28</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <f>Aug!D28</f>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C33" s="2">
         <f>Jan!D29</f>
         <v>0.99909999999999999</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D33" s="2">
         <f>Feb!D29</f>
         <v>0.98199999999999998</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E33" s="2">
         <f>Mar!D29</f>
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F33" s="2">
         <f>Apr!D29</f>
         <v>0.99929999999999997</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G33" s="2">
         <f>May!D29</f>
         <v>0.99880000000000002</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H33" s="2">
         <f>Jun!D29</f>
         <v>0.999</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="I33" s="2">
+        <f>Jul!D29</f>
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="J33" s="2">
+        <f>Aug!D29</f>
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.99370000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C34" s="2">
         <f>Jan!D30</f>
         <v>1</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D34" s="2">
         <f>Feb!D30</f>
         <v>1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E34" s="2">
         <f>Mar!D30</f>
         <v>1</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F34" s="2">
         <f>Apr!D30</f>
         <v>0.99039999999999995</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G34" s="2">
         <f>May!D30</f>
         <v>1</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H34" s="2">
         <f>Jun!D30</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="I34" s="2">
+        <f>Jul!D30</f>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="J34" s="2">
+        <f>Aug!D30</f>
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C35" s="2">
         <f>Jan!D31</f>
         <v>1</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D35" s="2">
         <f>Feb!D31</f>
         <v>1</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E35" s="2">
         <f>Mar!D31</f>
         <v>1</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F35" s="2">
         <f>Apr!D31</f>
         <v>1</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G35" s="2">
         <f>May!D31</f>
         <v>1</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H35" s="2">
         <f>Jun!D31</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="I35" s="2">
+        <f>Jul!D31</f>
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="J35" s="2">
+        <f>Aug!D31</f>
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C36" s="2">
         <f>Jan!D32</f>
         <v>1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D36" s="2">
         <f>Feb!D32</f>
         <v>0.99590000000000001</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E36" s="2">
         <f>Mar!D32</f>
         <v>0.99560000000000004</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F36" s="2">
         <f>Apr!D32</f>
         <v>1</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G36" s="2">
         <f>May!D32</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H36" s="2">
         <f>Jun!D32</f>
         <v>0.98980000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="E34" s="1" t="s">
+      <c r="I36" s="2">
+        <f>Jul!D32</f>
+        <v>0.9849</v>
+      </c>
+      <c r="J36" s="2">
+        <f>Aug!D32</f>
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="E38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
+      <c r="K38" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="E39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="K40" s="2">
+        <f>AVERAGE(I3:K3)</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" ref="K41:K73" si="0">AVERAGE(I4:K4)</f>
+        <v>0.91930000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="2">
-        <f>AVERAGE(C3:E3)</f>
+      <c r="E42" s="2">
+        <f>AVERAGE(C5:E5)</f>
         <v>0.99976666666666658</v>
       </c>
-      <c r="H36" s="2">
-        <f>AVERAGE(F3:H3)</f>
+      <c r="H42" s="2">
+        <f>AVERAGE(F5:H5)</f>
         <v>0.99803333333333333</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
+      <c r="K42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99963333333333326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" ref="E37:E65" si="0">AVERAGE(C4:E4)</f>
+      <c r="E43" s="2">
+        <f>AVERAGE(C6:E6)</f>
         <v>0.99969999999999992</v>
       </c>
-      <c r="H37" s="2">
-        <f t="shared" ref="H37:H65" si="1">AVERAGE(F4:H4)</f>
+      <c r="H43" s="2">
+        <f>AVERAGE(F6:H6)</f>
         <v>0.99893333333333334</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="K43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9972333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E44" s="2">
+        <f>AVERAGE(C7:E7)</f>
+        <v>0.99976666666666658</v>
+      </c>
+      <c r="H44" s="2">
+        <f>AVERAGE(F7:H7)</f>
+        <v>0.999</v>
+      </c>
+      <c r="K44" s="2">
         <f t="shared" si="0"/>
-        <v>0.99976666666666658</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="1"/>
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
+        <v>0.98673333333333335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="K45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86319999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E46" s="2">
+        <f>AVERAGE(C9:E9)</f>
+        <v>0.9932333333333333</v>
+      </c>
+      <c r="H46" s="2">
+        <f>AVERAGE(F9:H9)</f>
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="K46" s="2">
         <f t="shared" si="0"/>
-        <v>0.9932333333333333</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99460000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+        <v>0.98596666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B47" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E47" s="2">
+        <f>AVERAGE(C10:E10)</f>
+        <v>0.99046666666666672</v>
+      </c>
+      <c r="H47" s="2">
+        <f>AVERAGE(F10:H10)</f>
+        <v>0.97823333333333329</v>
+      </c>
+      <c r="K47" s="2">
         <f t="shared" si="0"/>
-        <v>0.99046666666666672</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="1"/>
-        <v>0.97823333333333329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
         <v>19</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E48" s="2">
+        <f>AVERAGE(C11:E11)</f>
+        <v>0.99813333333333343</v>
+      </c>
+      <c r="H48" s="2">
+        <f>AVERAGE(F11:H11)</f>
+        <v>0.93446666666666667</v>
+      </c>
+      <c r="K48" s="2">
         <f t="shared" si="0"/>
-        <v>0.99813333333333343</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="1"/>
-        <v>0.93446666666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
+        <v>0.96106666666666662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E49" s="2">
+        <f>AVERAGE(C12:E12)</f>
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="H49" s="2">
+        <f>AVERAGE(F12:H12)</f>
+        <v>0.99963333333333326</v>
+      </c>
+      <c r="K49" s="2">
         <f t="shared" si="0"/>
-        <v>0.97719999999999996</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99963333333333326</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
+        <v>0.99943333333333328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E50" s="2">
+        <f>AVERAGE(C13:E13)</f>
+        <v>0.99913333333333332</v>
+      </c>
+      <c r="H50" s="2">
+        <f>AVERAGE(F13:H13)</f>
+        <v>0.99970000000000014</v>
+      </c>
+      <c r="K50" s="2">
         <f t="shared" si="0"/>
-        <v>0.99913333333333332</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99970000000000014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
+        <v>0.99936666666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E51" s="2">
+        <f>AVERAGE(C14:E14)</f>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H51" s="2">
+        <f>AVERAGE(F14:H14)</f>
+        <v>0.99983333333333346</v>
+      </c>
+      <c r="K51" s="2">
         <f t="shared" si="0"/>
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="1"/>
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="2">
+        <f>AVERAGE(C15:E15)</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <f>AVERAGE(F15:H15)</f>
+        <v>0.9996666666666667</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="2">
+        <f>AVERAGE(C16:E16)</f>
+        <v>0.9998999999999999</v>
+      </c>
+      <c r="H53" s="2">
+        <f>AVERAGE(F16:H16)</f>
+        <v>0.99993333333333334</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2">
+        <f>AVERAGE(C17:E17)</f>
+        <v>0.9996666666666667</v>
+      </c>
+      <c r="H54" s="2">
+        <f>AVERAGE(F17:H17)</f>
+        <v>0.99949999999999994</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="0"/>
         <v>0.99983333333333346</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="2">
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="2">
+        <f>AVERAGE(C18:E18)</f>
+        <v>0.96406666666666663</v>
+      </c>
+      <c r="H55" s="2">
+        <f>AVERAGE(F18:H18)</f>
+        <v>0.9788</v>
+      </c>
+      <c r="K55" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="1"/>
+        <v>0.99693333333333334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="2">
+        <f>AVERAGE(C19:E19)</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <f>AVERAGE(F19:H19)</f>
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="2">
+        <f>AVERAGE(C20:E20)</f>
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <f>AVERAGE(F20:H20)</f>
+        <v>0.99993333333333334</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99983333333333346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="2">
+        <f>AVERAGE(C21:E21)</f>
+        <v>0.99949999999999994</v>
+      </c>
+      <c r="H58" s="2">
+        <f>AVERAGE(F21:H21)</f>
         <v>0.9996666666666667</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="K58" s="2">
         <f t="shared" si="0"/>
-        <v>0.9998999999999999</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99993333333333334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="2">
+        <v>0.9995666666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="2">
+        <f>AVERAGE(C22:E22)</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <f>AVERAGE(F22:H22)</f>
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99973333333333336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="2">
+        <f>AVERAGE(C23:E23)</f>
+        <v>0.99953333333333338</v>
+      </c>
+      <c r="H60" s="2">
+        <f>AVERAGE(F23:H23)</f>
+        <v>0.99949999999999994</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99983333333333346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="2">
+        <f>AVERAGE(C24:E24)</f>
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <f>AVERAGE(F24:H24)</f>
+        <v>0.99983333333333346</v>
+      </c>
+      <c r="K61" s="2">
         <f t="shared" si="0"/>
         <v>0.9996666666666667</v>
       </c>
-      <c r="H47" s="2">
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="2">
+        <f>AVERAGE(C25:E25)</f>
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="H62" s="2">
+        <f>AVERAGE(F25:H25)</f>
+        <v>0.9754666666666667</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="2">
+        <f>AVERAGE(C26:E26)</f>
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="H63" s="2">
+        <f>AVERAGE(F26:H26)</f>
+        <v>0.99976666666666658</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97359999999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="2">
+        <f>AVERAGE(C27:E27)</f>
+        <v>0.99846666666666672</v>
+      </c>
+      <c r="H64" s="2">
+        <f>AVERAGE(F27:H27)</f>
+        <v>0.99903333333333333</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99906666666666677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="2">
+        <f>AVERAGE(C28:E28)</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H65" s="2">
+        <f>AVERAGE(F28:H28)</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95806666666666673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="2">
+        <f>AVERAGE(C29:E29)</f>
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <f>AVERAGE(F29:H29)</f>
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98336666666666661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="K67" s="2">
+        <f t="shared" si="0"/>
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="2">
+        <f>AVERAGE(C31:E31)</f>
+        <v>0.98790000000000011</v>
+      </c>
+      <c r="H68" s="2">
+        <f>AVERAGE(F31:H31)</f>
+        <v>0.98746666666666671</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9961000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" ref="E69:E73" si="1">AVERAGE(C32:E32)</f>
+        <v>0.97989999999999988</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" ref="H69:H73" si="2">AVERAGE(F32:H32)</f>
+        <v>0.97853333333333337</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9946666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="2">
         <f t="shared" si="1"/>
-        <v>0.99949999999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="2">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99903333333333333</v>
+      </c>
+      <c r="K70" s="2">
         <f t="shared" si="0"/>
-        <v>0.96406666666666663</v>
-      </c>
-      <c r="H48" s="2">
+        <v>0.99339999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="2">
         <f t="shared" si="1"/>
-        <v>0.9788</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="K71" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H49" s="2">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="H72" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H50" s="2">
+        <v>0.97356666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="2">
         <f t="shared" si="1"/>
-        <v>0.99993333333333334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="2">
+        <v>0.99716666666666676</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99643333333333339</v>
+      </c>
+      <c r="K73" s="2">
         <f t="shared" si="0"/>
-        <v>0.99949999999999994</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="1"/>
-        <v>0.9996666666666667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99953333333333338</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99949999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99983333333333346</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9458333333333333</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="1"/>
-        <v>0.9754666666666667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98529999999999995</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99976666666666658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99846666666666672</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99903333333333333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98790000000000011</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="1"/>
-        <v>0.98746666666666671</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="0"/>
-        <v>0.97989999999999988</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="1"/>
-        <v>0.97853333333333337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99903333333333333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99680000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99716666666666676</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99643333333333339</v>
+        <v>0.97520000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -3239,4 +3872,384 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="2">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2">
+        <v>0.98509999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="2">
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="2">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2">
+        <v>0.99380000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="2">
+        <v>0.99139999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="2">
+        <v>0.98089999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="2">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="2">
+        <v>0.98880000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="2">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="2">
+        <v>0.97589999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2">
+        <v>0.92959999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="2">
+        <v>0.99309999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="2">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="2">
+        <v>0.53129999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="2">
+        <v>0.95760000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2">
+        <v>0.94240000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2">
+        <v>0.98340000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="2">
+        <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="2">
+        <v>0.95209999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="2">
+        <v>0.94259999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="2">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="2">
+        <v>0.88980000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/pub/Operations/ServiceLevelAgreements/2015.xlsx
+++ b/pub/Operations/ServiceLevelAgreements/2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="880" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="20" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,9 @@
     <sheet name="Jun" sheetId="7" r:id="rId7"/>
     <sheet name="Jul" sheetId="8" r:id="rId8"/>
     <sheet name="Aug" sheetId="9" r:id="rId9"/>
+    <sheet name="Sep" sheetId="10" r:id="rId10"/>
+    <sheet name="Oct" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
   <si>
     <t>Resource/Name</t>
   </si>
@@ -237,6 +240,12 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -285,8 +294,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -331,7 +342,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -348,6 +359,7 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -364,6 +376,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -693,9 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -757,6 +772,15 @@
       <c r="K3" s="3">
         <v>0.92</v>
       </c>
+      <c r="L3" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
@@ -768,6 +792,15 @@
       <c r="K4" s="2">
         <v>0.91930000000000001</v>
       </c>
+      <c r="L4" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.99939999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
@@ -811,6 +844,15 @@
       <c r="K5" s="2">
         <v>0.99950000000000006</v>
       </c>
+      <c r="L5" s="2">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
@@ -854,6 +896,15 @@
       <c r="K6" s="2">
         <v>0.99929999999999997</v>
       </c>
+      <c r="L6" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.99960000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
@@ -896,6 +947,15 @@
       </c>
       <c r="K7" s="2">
         <v>0.96060000000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -916,6 +976,15 @@
       <c r="K8" s="2">
         <v>0.86319999999999997</v>
       </c>
+      <c r="L8" s="2">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
@@ -959,6 +1028,15 @@
       <c r="K9" s="2">
         <v>0.98729999999999996</v>
       </c>
+      <c r="L9" s="2">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.99460000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
@@ -1002,6 +1080,15 @@
       <c r="K10" s="2">
         <v>0.90680000000000005</v>
       </c>
+      <c r="L10" s="2">
+        <v>0.9365</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.97350000000000003</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
@@ -1045,6 +1132,15 @@
       <c r="K11" s="2">
         <v>0.90510000000000002</v>
       </c>
+      <c r="L11" s="2">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.9768</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
@@ -1086,6 +1182,15 @@
       <c r="K12" s="2">
         <v>0.99929999999999997</v>
       </c>
+      <c r="L12" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.99860000000000004</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
@@ -1129,6 +1234,15 @@
       <c r="K13" s="2">
         <v>0.99950000000000006</v>
       </c>
+      <c r="L13" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.99919999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
@@ -1172,6 +1286,15 @@
       <c r="K14" s="2">
         <v>0.99970000000000003</v>
       </c>
+      <c r="L14" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.99929999999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
@@ -1215,6 +1338,15 @@
       <c r="K15" s="2">
         <v>0.99929999999999997</v>
       </c>
+      <c r="L15" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.99980000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
@@ -1258,8 +1390,17 @@
       <c r="K16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1301,8 +1442,17 @@
       <c r="K17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1344,8 +1494,17 @@
       <c r="K18" s="2">
         <v>0.99809999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="2">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1387,8 +1546,17 @@
       <c r="K19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="2">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1598,17 @@
       <c r="K20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="2">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1473,8 +1650,17 @@
       <c r="K21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1516,8 +1702,17 @@
       <c r="K22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1559,8 +1754,17 @@
       <c r="K23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1806,17 @@
       <c r="K24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1645,8 +1858,17 @@
       <c r="K25" s="2">
         <v>0.98899999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1688,8 +1910,17 @@
       <c r="K26" s="2">
         <v>0.99929999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1731,8 +1962,17 @@
       <c r="K27" s="2">
         <v>0.99860000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="2">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1774,8 +2014,17 @@
       <c r="K28" s="2">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1817,8 +2066,17 @@
       <c r="K29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1836,8 +2094,17 @@
       <c r="K30" s="2">
         <v>0.872</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="2">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.99380000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1879,8 +2146,17 @@
       <c r="K31" s="2">
         <v>0.98970000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="2">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.99319999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1922,8 +2198,17 @@
       <c r="K32" s="2">
         <v>0.98470000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1965,8 +2250,17 @@
       <c r="K33" s="2">
         <v>0.99370000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2008,8 +2302,17 @@
       <c r="K34" s="2">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2051,8 +2354,17 @@
       <c r="K35" s="2">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2094,8 +2406,17 @@
       <c r="K36" s="2">
         <v>0.99809999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L36" s="2">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.99360000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="E38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2105,12 +2426,18 @@
       <c r="K38" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="E39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -2123,8 +2450,16 @@
         <f>AVERAGE(I3:K3)</f>
         <v>0.92</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40" s="2">
+        <f>AVERAGE(L3:N3)</f>
+        <v>0.99873333333333336</v>
+      </c>
+      <c r="P40" s="2">
+        <f>AVERAGE(L3:N3)</f>
+        <v>0.99873333333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -2135,8 +2470,16 @@
         <f t="shared" ref="K41:K73" si="0">AVERAGE(I4:K4)</f>
         <v>0.91930000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41" s="2">
+        <f t="shared" ref="N41:N73" si="1">AVERAGE(L4:N4)</f>
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="P41" s="2">
+        <f>AVERAGE(L4:N4)</f>
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2155,8 +2498,16 @@
         <f t="shared" si="0"/>
         <v>0.99963333333333326</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9986666666666667</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" ref="P41:P73" si="2">AVERAGE(C5:N5)</f>
+        <v>0.99902500000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2175,8 +2526,16 @@
         <f t="shared" si="0"/>
         <v>0.9972333333333333</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99926666666666664</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99878333333333347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2195,8 +2554,16 @@
         <f t="shared" si="0"/>
         <v>0.98673333333333335</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="N44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99622500000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -2209,8 +2576,16 @@
         <f t="shared" si="0"/>
         <v>0.86319999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99923333333333331</v>
+      </c>
+      <c r="P45" s="2">
+        <f>AVERAGE(L8:N8)</f>
+        <v>0.99923333333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2218,19 +2593,27 @@
         <v>43</v>
       </c>
       <c r="E46" s="2">
-        <f>AVERAGE(C9:E9)</f>
+        <f t="shared" ref="E46:E66" si="3">AVERAGE(C9:E9)</f>
         <v>0.9932333333333333</v>
       </c>
       <c r="H46" s="2">
-        <f>AVERAGE(F9:H9)</f>
+        <f t="shared" ref="H46:H66" si="4">AVERAGE(F9:H9)</f>
         <v>0.99460000000000004</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="0"/>
         <v>0.98596666666666666</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="N46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99420000000000008</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2238,19 +2621,27 @@
         <v>44</v>
       </c>
       <c r="E47" s="2">
-        <f>AVERAGE(C10:E10)</f>
+        <f t="shared" si="3"/>
         <v>0.99046666666666672</v>
       </c>
       <c r="H47" s="2">
-        <f>AVERAGE(F10:H10)</f>
+        <f t="shared" si="4"/>
         <v>0.97823333333333329</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="0"/>
         <v>0.9405</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95033333333333336</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96488333333333343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2258,19 +2649,27 @@
         <v>44</v>
       </c>
       <c r="E48" s="2">
-        <f>AVERAGE(C11:E11)</f>
+        <f t="shared" si="3"/>
         <v>0.99813333333333343</v>
       </c>
       <c r="H48" s="2">
-        <f>AVERAGE(F11:H11)</f>
+        <f t="shared" si="4"/>
         <v>0.93446666666666667</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="0"/>
         <v>0.96106666666666662</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95783333333333331</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96287500000000026</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2278,19 +2677,27 @@
         <v>60</v>
       </c>
       <c r="E49" s="2">
-        <f>AVERAGE(C12:E12)</f>
+        <f t="shared" si="3"/>
         <v>0.97719999999999996</v>
       </c>
       <c r="H49" s="2">
-        <f>AVERAGE(F12:H12)</f>
+        <f t="shared" si="4"/>
         <v>0.99963333333333326</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="0"/>
         <v>0.99943333333333328</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99943333333333328</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99726999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2298,19 +2705,27 @@
         <v>45</v>
       </c>
       <c r="E50" s="2">
-        <f>AVERAGE(C13:E13)</f>
+        <f t="shared" si="3"/>
         <v>0.99913333333333332</v>
       </c>
       <c r="H50" s="2">
-        <f>AVERAGE(F13:H13)</f>
+        <f t="shared" si="4"/>
         <v>0.99970000000000014</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="0"/>
         <v>0.99936666666666663</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99932500000000013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2318,19 +2733,27 @@
         <v>46</v>
       </c>
       <c r="E51" s="2">
-        <f>AVERAGE(C14:E14)</f>
+        <f t="shared" si="3"/>
         <v>0.99909999999999999</v>
       </c>
       <c r="H51" s="2">
-        <f>AVERAGE(F14:H14)</f>
+        <f t="shared" si="4"/>
         <v>0.99983333333333346</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="0"/>
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99958333333333338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2338,19 +2761,27 @@
         <v>45</v>
       </c>
       <c r="E52" s="2">
-        <f>AVERAGE(C15:E15)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H52" s="2">
-        <f>AVERAGE(F15:H15)</f>
+        <f t="shared" si="4"/>
         <v>0.9996666666666667</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="0"/>
         <v>0.99929999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="N52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99953333333333338</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99962499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2358,19 +2789,27 @@
         <v>46</v>
       </c>
       <c r="E53" s="2">
-        <f>AVERAGE(C16:E16)</f>
+        <f t="shared" si="3"/>
         <v>0.9998999999999999</v>
       </c>
       <c r="H53" s="2">
-        <f>AVERAGE(F16:H16)</f>
+        <f t="shared" si="4"/>
         <v>0.99993333333333334</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99993333333333334</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99994166666666662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2378,19 +2817,27 @@
         <v>47</v>
       </c>
       <c r="E54" s="2">
-        <f>AVERAGE(C17:E17)</f>
+        <f t="shared" si="3"/>
         <v>0.9996666666666667</v>
       </c>
       <c r="H54" s="2">
-        <f>AVERAGE(F17:H17)</f>
+        <f t="shared" si="4"/>
         <v>0.99949999999999994</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="0"/>
         <v>0.99983333333333346</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99983333333333346</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99970833333333331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -2398,19 +2845,27 @@
         <v>48</v>
       </c>
       <c r="E55" s="2">
-        <f>AVERAGE(C18:E18)</f>
+        <f t="shared" si="3"/>
         <v>0.96406666666666663</v>
       </c>
       <c r="H55" s="2">
-        <f>AVERAGE(F18:H18)</f>
+        <f t="shared" si="4"/>
         <v>0.9788</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="0"/>
         <v>0.99693333333333334</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98417500000000013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2418,19 +2873,27 @@
         <v>48</v>
       </c>
       <c r="E56" s="2">
-        <f>AVERAGE(C19:E19)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H56" s="2">
-        <f>AVERAGE(F19:H19)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="0"/>
         <v>0.99880000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9855666666666667</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9960916666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2438,19 +2901,27 @@
         <v>49</v>
       </c>
       <c r="E57" s="2">
-        <f>AVERAGE(C20:E20)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H57" s="2">
-        <f>AVERAGE(F20:H20)</f>
+        <f t="shared" si="4"/>
         <v>0.99993333333333334</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="0"/>
         <v>0.99983333333333346</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99933333333333341</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99977500000000008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2458,19 +2929,27 @@
         <v>50</v>
       </c>
       <c r="E58" s="2">
-        <f>AVERAGE(C21:E21)</f>
+        <f t="shared" si="3"/>
         <v>0.99949999999999994</v>
       </c>
       <c r="H58" s="2">
-        <f>AVERAGE(F21:H21)</f>
+        <f t="shared" si="4"/>
         <v>0.9996666666666667</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="0"/>
         <v>0.9995666666666666</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99933333333333341</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99951666666666672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -2478,19 +2957,27 @@
         <v>50</v>
       </c>
       <c r="E59" s="2">
-        <f>AVERAGE(C22:E22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H59" s="2">
-        <f>AVERAGE(F22:H22)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="0"/>
         <v>0.99973333333333336</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="N59" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99983333333333346</v>
+      </c>
+      <c r="P59" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99989166666666662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -2498,19 +2985,27 @@
         <v>51</v>
       </c>
       <c r="E60" s="2">
-        <f>AVERAGE(C23:E23)</f>
+        <f t="shared" si="3"/>
         <v>0.99953333333333338</v>
       </c>
       <c r="H60" s="2">
-        <f>AVERAGE(F23:H23)</f>
+        <f t="shared" si="4"/>
         <v>0.99949999999999994</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="0"/>
         <v>0.99983333333333346</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="N60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99949999999999994</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99959166666666677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -2518,19 +3013,27 @@
         <v>51</v>
       </c>
       <c r="E61" s="2">
-        <f>AVERAGE(C24:E24)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H61" s="2">
-        <f>AVERAGE(F24:H24)</f>
+        <f t="shared" si="4"/>
         <v>0.99983333333333346</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="0"/>
         <v>0.9996666666666667</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="N61" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99953333333333338</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9997583333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -2538,19 +3041,27 @@
         <v>52</v>
       </c>
       <c r="E62" s="2">
-        <f>AVERAGE(C25:E25)</f>
+        <f t="shared" si="3"/>
         <v>0.9458333333333333</v>
       </c>
       <c r="H62" s="2">
-        <f>AVERAGE(F25:H25)</f>
+        <f t="shared" si="4"/>
         <v>0.9754666666666667</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="0"/>
         <v>0.83899999999999997</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="N62" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99873333333333336</v>
+      </c>
+      <c r="P62" s="2">
+        <f t="shared" si="2"/>
+        <v>0.93975833333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -2558,19 +3069,27 @@
         <v>53</v>
       </c>
       <c r="E63" s="2">
-        <f>AVERAGE(C26:E26)</f>
+        <f t="shared" si="3"/>
         <v>0.98529999999999995</v>
       </c>
       <c r="H63" s="2">
-        <f>AVERAGE(F26:H26)</f>
+        <f t="shared" si="4"/>
         <v>0.99976666666666658</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
         <v>0.97359999999999991</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="N63" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99936666666666663</v>
+      </c>
+      <c r="P63" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98950833333333321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -2578,19 +3097,27 @@
         <v>53</v>
       </c>
       <c r="E64" s="2">
-        <f>AVERAGE(C27:E27)</f>
+        <f t="shared" si="3"/>
         <v>0.99846666666666672</v>
       </c>
       <c r="H64" s="2">
-        <f>AVERAGE(F27:H27)</f>
+        <f t="shared" si="4"/>
         <v>0.99903333333333333</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="0"/>
         <v>0.99906666666666677</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="N64" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99820000000000009</v>
+      </c>
+      <c r="P64" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99869166666666642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -2598,19 +3125,27 @@
         <v>54</v>
       </c>
       <c r="E65" s="2">
-        <f>AVERAGE(C28:E28)</f>
+        <f t="shared" si="3"/>
         <v>0.99960000000000004</v>
       </c>
       <c r="H65" s="2">
-        <f>AVERAGE(F28:H28)</f>
+        <f t="shared" si="4"/>
         <v>0.99980000000000002</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="0"/>
         <v>0.95806666666666673</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="N65" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98926666666666663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -2618,19 +3153,27 @@
         <v>54</v>
       </c>
       <c r="E66" s="2">
-        <f>AVERAGE(C29:E29)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H66" s="2">
-        <f>AVERAGE(F29:H29)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="0"/>
         <v>0.98336666666666661</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="N66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99993333333333334</v>
+      </c>
+      <c r="P66" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99582500000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2643,8 +3186,16 @@
         <f t="shared" si="0"/>
         <v>0.872</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="N67" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99453333333333338</v>
+      </c>
+      <c r="P67" s="2">
+        <f>AVERAGE(L30:N30)</f>
+        <v>0.99453333333333338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -2663,8 +3214,16 @@
         <f t="shared" si="0"/>
         <v>0.9961000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="N68" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="P68" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99171666666666658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -2672,19 +3231,27 @@
         <v>56</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" ref="E69:E73" si="1">AVERAGE(C32:E32)</f>
+        <f t="shared" ref="E69:E73" si="5">AVERAGE(C32:E32)</f>
         <v>0.97989999999999988</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" ref="H69:H73" si="2">AVERAGE(F32:H32)</f>
+        <f t="shared" ref="H69:H73" si="6">AVERAGE(F32:H32)</f>
         <v>0.97853333333333337</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" si="0"/>
         <v>0.9946666666666667</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="N69" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="P69" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98769999999999991</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -2692,19 +3259,27 @@
         <v>57</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99370000000000003</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99903333333333333</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="0"/>
         <v>0.99339999999999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="N70" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99316666666666664</v>
+      </c>
+      <c r="P70" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99482499999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -2712,19 +3287,27 @@
         <v>58</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99680000000000002</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="0"/>
         <v>0.99239999999999995</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="N71" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99986666666666668</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99726666666666652</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -2732,19 +3315,27 @@
         <v>59</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="0"/>
         <v>0.97356666666666669</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="N72" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99696666666666667</v>
+      </c>
+      <c r="P72" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99263333333333315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -2752,21 +3343,86 @@
         <v>53</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99716666666666676</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99643333333333339</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="0"/>
         <v>0.97520000000000007</v>
       </c>
+      <c r="N73" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99543333333333328</v>
+      </c>
+      <c r="P73" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99105833333333349</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
